--- a/documentos/plantillas/reporte_tareos_2024-10-28.xlsx
+++ b/documentos/plantillas/reporte_tareos_2024-10-28.xlsx
@@ -20,7 +20,7 @@
     <t>SEPCON S.A.C.</t>
   </si>
   <si>
-    <t>Nuevo Encabezado 1</t>
+    <t>TAREOS - CONTROL DE ASISTENCIA REPORTE 020000 ADMINISTRACION DE OFICINA / Sede Lima 2024-10-28</t>
   </si>
   <si>
     <t>DATOS PERSONALES</t>
@@ -176,6 +176,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
   </si>
   <si>
     <t>Practicante del Área Legal</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>ALVAREZ TRUJILLO YNES</t>
@@ -658,7 +658,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -979,7 +979,7 @@
   <dimension ref="A1:AR66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.53515625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1260,16 +1260,34 @@
         <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL7" s="3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1277,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>70082701</v>
@@ -1286,10 +1304,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
@@ -1301,13 +1319,31 @@
         <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL8" s="3">
         <v>3</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1324,7 +1360,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>60</v>
@@ -1339,12 +1375,30 @@
         <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1362,7 +1416,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>62</v>
@@ -1374,15 +1428,33 @@
         <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1400,7 +1472,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>64</v>
@@ -1412,16 +1484,34 @@
         <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL11" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -1438,7 +1528,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>66</v>
@@ -1447,18 +1537,36 @@
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1476,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>69</v>
@@ -1491,12 +1599,30 @@
         <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1514,7 +1640,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
@@ -1529,12 +1655,30 @@
         <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1552,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>73</v>
@@ -1567,12 +1711,30 @@
         <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1590,7 +1752,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>75</v>
@@ -1605,12 +1767,30 @@
         <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1628,7 +1808,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>78</v>
@@ -1643,12 +1823,30 @@
         <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1666,7 +1864,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>81</v>
@@ -1681,12 +1879,30 @@
         <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1704,7 +1920,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>83</v>
@@ -1719,12 +1935,30 @@
         <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1742,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>85</v>
@@ -1757,12 +1991,30 @@
         <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1780,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>87</v>
@@ -1795,12 +2047,30 @@
         <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1818,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>87</v>
@@ -1833,12 +2103,30 @@
         <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1871,12 +2159,30 @@
         <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1894,7 +2200,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>60</v>
@@ -1909,12 +2215,30 @@
         <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1932,7 +2256,7 @@
         <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>94</v>
@@ -1947,12 +2271,30 @@
         <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1970,7 +2312,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>96</v>
@@ -1985,12 +2327,30 @@
         <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2008,7 +2368,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>98</v>
@@ -2023,12 +2383,30 @@
         <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2046,7 +2424,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>101</v>
@@ -2061,12 +2439,30 @@
         <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2084,7 +2480,7 @@
         <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>103</v>
@@ -2099,12 +2495,30 @@
         <v>52</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2122,7 +2536,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>106</v>
@@ -2137,12 +2551,30 @@
         <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2160,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>109</v>
@@ -2175,12 +2607,30 @@
         <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2198,7 +2648,7 @@
         <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>111</v>
@@ -2213,12 +2663,30 @@
         <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2236,7 +2704,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>113</v>
@@ -2251,12 +2719,30 @@
         <v>52</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2274,7 +2760,7 @@
         <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>115</v>
@@ -2289,12 +2775,30 @@
         <v>52</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2312,7 +2816,7 @@
         <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>117</v>
@@ -2327,12 +2831,30 @@
         <v>52</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2350,7 +2872,7 @@
         <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>119</v>
@@ -2365,12 +2887,30 @@
         <v>52</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2388,7 +2928,7 @@
         <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>121</v>
@@ -2403,12 +2943,30 @@
         <v>52</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2426,7 +2984,7 @@
         <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>124</v>
@@ -2441,12 +2999,30 @@
         <v>52</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2464,7 +3040,7 @@
         <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>127</v>
@@ -2479,12 +3055,30 @@
         <v>52</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2502,7 +3096,7 @@
         <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>130</v>
@@ -2517,12 +3111,30 @@
         <v>52</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2540,7 +3152,7 @@
         <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>132</v>
@@ -2555,12 +3167,30 @@
         <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2578,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>75</v>
@@ -2593,12 +3223,30 @@
         <v>52</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2616,7 +3264,7 @@
         <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>135</v>
@@ -2631,12 +3279,30 @@
         <v>52</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2654,7 +3320,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>138</v>
@@ -2669,12 +3335,30 @@
         <v>52</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2692,7 +3376,7 @@
         <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>141</v>
@@ -2707,12 +3391,30 @@
         <v>52</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2730,7 +3432,7 @@
         <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>143</v>
@@ -2745,12 +3447,30 @@
         <v>52</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL46" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2768,7 +3488,7 @@
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>103</v>
@@ -2783,12 +3503,30 @@
         <v>52</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2806,7 +3544,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>121</v>
@@ -2821,12 +3559,30 @@
         <v>52</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL48" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2844,7 +3600,7 @@
         <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>149</v>
@@ -2859,12 +3615,30 @@
         <v>52</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL49" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2882,7 +3656,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>152</v>
@@ -2897,12 +3671,30 @@
         <v>52</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2920,7 +3712,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>154</v>
@@ -2935,12 +3727,30 @@
         <v>52</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2958,7 +3768,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>130</v>
@@ -2973,12 +3783,30 @@
         <v>52</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL52" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2996,7 +3824,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>103</v>
@@ -3011,12 +3839,30 @@
         <v>52</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL53" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3034,7 +3880,7 @@
         <v>49</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>158</v>
@@ -3049,12 +3895,30 @@
         <v>52</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL54" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3072,7 +3936,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>161</v>
@@ -3087,12 +3951,30 @@
         <v>52</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL55" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3110,7 +3992,7 @@
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>163</v>
@@ -3125,12 +4007,30 @@
         <v>52</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3148,7 +4048,7 @@
         <v>49</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>166</v>
@@ -3163,12 +4063,30 @@
         <v>52</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL57" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3186,7 +4104,7 @@
         <v>49</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>169</v>
@@ -3201,12 +4119,30 @@
         <v>52</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL58" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3224,7 +4160,7 @@
         <v>49</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>158</v>
@@ -3239,12 +4175,30 @@
         <v>52</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL59" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3262,7 +4216,7 @@
         <v>49</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>172</v>
@@ -3277,12 +4231,30 @@
         <v>52</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL60" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3300,7 +4272,7 @@
         <v>49</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>127</v>
@@ -3315,12 +4287,30 @@
         <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3338,7 +4328,7 @@
         <v>49</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>175</v>
@@ -3353,12 +4343,30 @@
         <v>52</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL62" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3376,7 +4384,7 @@
         <v>49</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>127</v>
@@ -3391,12 +4399,30 @@
         <v>52</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL63" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3414,7 +4440,7 @@
         <v>49</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>179</v>
@@ -3429,12 +4455,30 @@
         <v>52</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL64" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3452,7 +4496,7 @@
         <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>181</v>
@@ -3467,13 +4511,31 @@
         <v>52</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL65" s="3">
         <v>3</v>
+      </c>
+      <c r="AM65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:44">
@@ -3490,7 +4552,7 @@
         <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>184</v>
@@ -3502,16 +4564,34 @@
         <v>52</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL66" s="3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AM66" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
